--- a/TEST CASE - DEMO BLAZE.xlsx
+++ b/TEST CASE - DEMO BLAZE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SIGN UP" sheetId="2" r:id="rId1"/>
@@ -14,25 +14,11 @@
     <sheet name="PLACE ORDER" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="326">
   <si>
     <t>Test Scenario Description</t>
   </si>
@@ -971,13 +957,52 @@
   </si>
   <si>
     <t>It showing the only previously entered details with message" Thank you For Purchase"</t>
+  </si>
+  <si>
+    <t>Module: Homepage</t>
+  </si>
+  <si>
+    <t>Browser Name: Chrome</t>
+  </si>
+  <si>
+    <t>Tester Name : Dhruvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website Name: Demoblaze    </t>
+  </si>
+  <si>
+    <t>Module: SignUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> URL : https://www.Demoblaze.com/Signup/</t>
+  </si>
+  <si>
+    <t>Module: LogIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> URL : https://www.Demoblaze.com/Login/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> URL : https://www.Demoblaze.com/Homepage/</t>
+  </si>
+  <si>
+    <t>Module: Cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> URL : https://www.Demoblaze.com/Cart/</t>
+  </si>
+  <si>
+    <t>Module: Place Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> URL : https://www.Demoblaze.com/Place order/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1042,8 +1067,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1066,6 +1097,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1394,7 +1431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1585,6 +1622,18 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1594,9 +1643,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1857,7 +1903,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1865,10 +1911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I24"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,250 +1930,251 @@
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="69"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="69"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="69"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="69"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="69"/>
+    </row>
+    <row r="6" spans="1:9" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H6" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I6" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="7" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G7" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H7" s="38" t="s">
         <v>79</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>87</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="42" t="s">
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>77</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>92</v>
-      </c>
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>97</v>
+        <v>9</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>94</v>
+        <v>77</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B13" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G13" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H13" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I13" s="44" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
@@ -2147,6 +2194,33 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2155,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1000"/>
+  <dimension ref="A1:W1003"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2174,9 +2248,11 @@
     <col min="9" max="16384" width="12.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="6"/>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="69"/>
       <c r="C1" s="6"/>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
@@ -2199,16 +2275,18 @@
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2224,34 +2302,18 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
     </row>
-    <row r="3" spans="1:23" s="10" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>74</v>
-      </c>
+    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -2267,34 +2329,18 @@
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
     </row>
-    <row r="4" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>80</v>
-      </c>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2310,30 +2356,18 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>80</v>
-      </c>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2349,29 +2383,33 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>80</v>
+    <row r="6" spans="1:23" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -2388,28 +2426,32 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
     </row>
-    <row r="7" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8"/>
+    <row r="7" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>111</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>109</v>
+      <c r="F7" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="I7" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="31" t="s">
         <v>80</v>
       </c>
       <c r="J7" s="6"/>
@@ -2427,28 +2469,28 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
     </row>
-    <row r="8" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>110</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>116</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="31" t="s">
         <v>80</v>
       </c>
       <c r="J8" s="6"/>
@@ -2466,32 +2508,28 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
     </row>
-    <row r="9" spans="1:23" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>114</v>
+    <row r="9" spans="1:23" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>80</v>
       </c>
       <c r="J9" s="6"/>
@@ -2509,48 +2547,94 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+    <row r="10" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+    <row r="11" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+    <row r="12" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -2680,13 +2764,13 @@
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -2705,13 +2789,13 @@
       <c r="W20" s="6"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -2730,13 +2814,13 @@
       <c r="W21" s="6"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -27204,6 +27288,39 @@
       <c r="V1000" s="6"/>
       <c r="W1000" s="6"/>
     </row>
+    <row r="1001" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="6"/>
+      <c r="C1001" s="6"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="1"/>
+      <c r="F1001" s="1"/>
+      <c r="G1001" s="1"/>
+      <c r="H1001" s="6"/>
+      <c r="I1001" s="6"/>
+    </row>
+    <row r="1002" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="6"/>
+      <c r="C1002" s="6"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="1"/>
+      <c r="F1002" s="1"/>
+      <c r="G1002" s="1"/>
+      <c r="H1002" s="6"/>
+      <c r="I1002" s="6"/>
+    </row>
+    <row r="1003" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1003" s="1"/>
+      <c r="B1003" s="6"/>
+      <c r="C1003" s="6"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="1"/>
+      <c r="F1003" s="1"/>
+      <c r="G1003" s="1"/>
+      <c r="H1003" s="6"/>
+      <c r="I1003" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27213,10 +27330,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27232,637 +27349,604 @@
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="69"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="69"/>
+    </row>
+    <row r="6" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H6" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I6" s="50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="7" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B7" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D7" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G7" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H7" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I7" s="51" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="8" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B8" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D8" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E8" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F8" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G8" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H8" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I8" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="9" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B9" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D9" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E9" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F9" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G9" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H9" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I9" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="19" t="s">
+    <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D10" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E10" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F10" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G10" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H10" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I10" s="53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="19" t="s">
+    <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D11" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F11" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G11" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H11" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I11" s="53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="19" t="s">
+    <row r="12" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D12" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E12" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F12" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G12" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H12" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I12" s="53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+    <row r="13" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B13" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D13" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E13" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F13" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G13" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H13" s="22" t="s">
         <v>189</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>28</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="23"/>
+    <row r="14" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>190</v>
+      </c>
       <c r="C14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="I14" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="I14" s="31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="23"/>
+    <row r="15" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>25</v>
+      </c>
       <c r="C15" s="19" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>159</v>
+        <v>149</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="I15" s="53" t="s">
-        <v>99</v>
+        <v>150</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>29</v>
-      </c>
+      <c r="A16" s="28"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="19" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>53</v>
+        <v>145</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>31</v>
+        <v>152</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="I16" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>173</v>
-      </c>
+    <row r="17" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="19" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D17" s="60" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>165</v>
+        <v>32</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>154</v>
       </c>
       <c r="G17" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>167</v>
+        <v>155</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="I17" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>174</v>
-      </c>
+      <c r="A18" s="28"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>170</v>
+        <v>158</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>159</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="I18" s="53" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>29</v>
+      </c>
       <c r="C19" s="19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="I19" s="53" t="s">
-        <v>99</v>
+        <v>163</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>180</v>
+        <v>61</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>173</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20" s="60" t="s">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="H20" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="I20" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>197</v>
+    <row r="21" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="I21" s="53" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>200</v>
-      </c>
+      <c r="A22" s="28"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="I22" s="53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>206</v>
+    <row r="23" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>194</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>50</v>
+        <v>180</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="D23" s="60" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="G23" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="I23" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="H23" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="I23" s="56" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="D24" s="60" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>227</v>
+        <v>47</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>80</v>
+        <v>195</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="22" t="s">
-        <v>219</v>
+      <c r="A25" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="D25" s="60" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>230</v>
+        <v>202</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>203</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="I25" s="53" t="s">
         <v>99</v>
@@ -27870,28 +27954,28 @@
     </row>
     <row r="26" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>221</v>
+        <v>206</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>208</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>224</v>
+        <v>210</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>211</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I26" s="28" t="s">
         <v>80</v>
@@ -27899,55 +27983,138 @@
     </row>
     <row r="27" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>236</v>
+        <v>213</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>228</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>239</v>
+        <v>215</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>216</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28" t="s">
+    <row r="28" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="I28" s="53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D31" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E31" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F31" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G31" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H31" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="I31" s="28" t="s">
         <v>80</v>
       </c>
     </row>
@@ -27960,10 +28127,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27979,278 +28146,325 @@
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="69"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="69"/>
+    </row>
+    <row r="6" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H6" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I6" s="45" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="7" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B7" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D7" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F7" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G7" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H7" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I7" s="31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+    <row r="8" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B8" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D8" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E8" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F8" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G8" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H8" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I8" s="53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="31" t="s">
+    <row r="9" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D9" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E9" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F9" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H9" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I9" s="53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B10" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D10" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E10" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F10" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G10" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H10" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I10" s="53" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B14" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C14" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D14" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E14" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F14" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G14" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H14" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I14" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+    </row>
     <row r="17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28262,10 +28476,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I11"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28281,237 +28495,287 @@
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="69"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="69"/>
+    </row>
+    <row r="6" spans="1:9" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H6" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I6" s="45" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="7" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B7" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D7" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E7" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F7" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G7" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H7" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I7" s="36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="31" t="s">
+    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D8" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E8" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F8" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G8" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H8" s="52" t="s">
         <v>287</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I8" s="52" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="22" t="s">
-        <v>12</v>
+      <c r="C9" s="31" t="s">
+        <v>9</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>304</v>
+        <v>70</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>300</v>
+        <v>71</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="I9" s="52" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>13</v>
+        <v>291</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>10</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="H10" s="52" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="I10" s="52" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
